--- a/biology/Botanique/Tagetes/Tagetes.xlsx
+++ b/biology/Botanique/Tagetes/Tagetes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tagetes (les  tagètes ou tagettes) est un genre de plantes à fleurs de la famille des Asteraceae. Ce genre est composé d'une trentaine d'espèces de plantes herbacées dont certaines sont cultivées comme ornementales (Tagetes erecta, Tagetes minuta...) ou médicinales (Tagetes patula, Tagetes tenuifolia...).
 </t>
@@ -511,7 +523,9 @@
           <t>Nomenclature</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est le genre de l'œillet d'Inde et de la rose d'Inde. D'autres espèces sont appelées « souci français ». On retrouve souvent les francisations « tagète » et « tagette »
 </t>
@@ -542,9 +556,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tagetes doit son nom à Tagès, petit-fils de Jupiter (né du labour de la terre, il enseigna aux hommes l'art de la divination), probablement en raison de la facilité qu'ont les plantes de cette espèce à ressortir chaque année de terre, soit grâce aux graines produites l'année précédente, soit grâce aux tiges qui rejettent de la souche déjà en place[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tagetes doit son nom à Tagès, petit-fils de Jupiter (né du labour de la terre, il enseigna aux hommes l'art de la divination), probablement en raison de la facilité qu'ont les plantes de cette espèce à ressortir chaque année de terre, soit grâce aux graines produites l'année précédente, soit grâce aux tiges qui rejettent de la souche déjà en place.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Tagetes apetala Posada-Ar.
